--- a/Configs/Datas/Effects/SpeedChangeEffect.xlsx
+++ b/Configs/Datas/Effects/SpeedChangeEffect.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>*time</t>
   </si>
   <si>
+    <t>*target</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>list,float</t>
   </si>
   <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -59,6 +65,10 @@
   </si>
   <si>
     <t>速度变化倍率</t>
+  </si>
+  <si>
+    <t>1 = 自身
+2 = 对方</t>
   </si>
 </sst>
 </file>
@@ -674,9 +684,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -995,7 +1008,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1018,44 +1031,53 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="27" spans="1:12">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1065,16 +1087,22 @@
       <c r="D5">
         <v>0.5</v>
       </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:5">
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="2:4">
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1083,6 +1111,9 @@
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
